--- a/src/test/java/Data/Load_config.xlsx
+++ b/src/test/java/Data/Load_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\Demoframework\src\test\java\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrameworkFiles\Demoframework\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27444D-87C8-449E-9C6E-650259D3465E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04D0A95-7875-43A4-9E04-85D737ED4F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76C0F97D-AECC-4EBA-A18E-D3312C027FCE}"/>
   </bookViews>
@@ -232,10 +232,10 @@
     </r>
   </si>
   <si>
-    <t>classpath:Features/TDG_UKAF_Chainning.feature@Perf</t>
-  </si>
-  <si>
     <t>constantUsersPerSec(100).during(1 minute)</t>
+  </si>
+  <si>
+    <t>classpath:KarateFeatures/TDG_UKAF_Chainning.feature@Perf</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -869,10 +869,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
